--- a/xlsx/芝加哥_intext.xlsx
+++ b/xlsx/芝加哥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="922">
   <si>
     <t>芝加哥</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>芝加哥 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_芝加哥</t>
+    <t>芝加哥 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_芝加哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>芝加哥地鐵</t>
+    <t>芝加哥地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%86%9B%E7%A0%81%E5%A4%B4</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%88%A9%E6%96%AF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>威利斯大廈</t>
+    <t>威利斯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B3%95%E5%9C%98</t>
   </si>
   <si>
-    <t>市法團</t>
+    <t>市法团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Miami-Illinois_language</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -221,9 +221,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B8%9C%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%9A%E5%8C%BA</t>
   </si>
   <si>
-    <t>都会区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%BB%91%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>珍·亞當斯</t>
+    <t>珍·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%B2%B3</t>
@@ -347,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E4%BB%A4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>禁酒令時期</t>
+    <t>禁酒令时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E5%8D%A1%E5%BD%AD</t>
   </si>
   <si>
-    <t>艾爾·卡彭</t>
+    <t>艾尔·卡彭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A3%82%E5%8F%98</t>
@@ -371,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>西爾斯大樓</t>
+    <t>西尔斯大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%BC%A2%E8%80%83%E5%85%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>約翰漢考克中心</t>
+    <t>约翰汉考克中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A5%A5%E9%BB%91%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2016年夏季奧林匹克運動會</t>
+    <t>2016年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心一號大樓</t>
+    <t>世界贸易中心一号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%95%86%E5%93%81%E6%9C%9F%E8%B2%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約商品期貨交易所</t>
+    <t>纽约商品期货交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E6%8C%87%E6%95%B0</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -533,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%85%E5%9F%B9</t>
   </si>
   <si>
-    <t>美國雅培</t>
+    <t>美国雅培</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
@@ -575,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E5%A3%93</t>
   </si>
   <si>
-    <t>沖壓</t>
+    <t>冲压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%95%E8%A6%BD%E9%A4%A8</t>
   </si>
   <si>
-    <t>展覽館</t>
+    <t>展览馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
@@ -671,13 +665,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%95%E9%AD%AF</t>
   </si>
   <si>
-    <t>祕魯</t>
+    <t>祕鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>韓國人</t>
+    <t>韩国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>泰國人</t>
+    <t>泰国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%86%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>芝加哥熊隊</t>
+    <t>芝加哥熊队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E5%8B%95%E9%80%9A%E8%A8%8A%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>美國行動通訊球場</t>
+    <t>美国行动通讯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%81%AB%E7%84%B0</t>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%BB%91%E9%B7%B9%E9%9A%8A</t>
   </si>
   <si>
-    <t>芝加哥黑鷹隊</t>
+    <t>芝加哥黑鹰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%B0%94%C2%B7%E5%B8%83%E6%8B%89%E5%BE%B7%E5%88%A9</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%92%E9%BA%9F%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>麒麟作戰</t>
+    <t>麒麟作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%99%AE%E6%9E%97%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%80%9A%E5%8B%A4%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>芝加哥通勤鐵路</t>
+    <t>芝加哥通勤铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E4%B8%AD%E9%80%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -977,9 +971,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%A6_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
@@ -989,31 +980,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊利諾大學芝加哥分校</t>
+    <t>伊利诺大学芝加哥分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥洛約拉大學</t>
+    <t>芝加哥洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伊利諾理工學院</t>
+    <t>伊利诺理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>芝加哥藝術學院</t>
+    <t>芝加哥艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E4%BF%9D%E7%BD%97%E5%A4%A7%E5%AD%A6</t>
@@ -1025,19 +1016,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E9%83%BD%E6%9C%83%E5%8D%80%E7%9A%84%E5%AD%B8%E9%99%A2%E5%92%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-芝加哥大都會區的學院和大學</t>
+    <t>Template talk-芝加哥大都会区的学院和大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%9F%8E%E5%B8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>芝加哥城市學院</t>
+    <t>芝加哥城市学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>迦太基學院</t>
+    <t>迦太基学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E8%BF%AA%E5%9C%A3%E7%BB%8F%E5%AD%A6%E9%99%A2</t>
@@ -1055,31 +1046,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%BE%85%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧羅拉大學</t>
+    <t>奥罗拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B0%BC%E8%BF%AA%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>班尼迪克大學</t>
+    <t>班尼迪克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥州立大學</t>
+    <t>芝加哥州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%A4%A7%E5%AD%B8%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>協和大學芝加哥分校</t>
+    <t>协和大学芝加哥分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%85%8B%E5%A4%A7%E5%AD%B8_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>多明尼克大學 (伊利諾伊州)</t>
+    <t>多明尼克大学 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E5%A4%A7%E5%AD%A6_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1091,49 +1082,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>州長州立大學</t>
+    <t>州长州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%A4%A7%E5%AD%B8%E8%A5%BF%E5%8C%97%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>印第安納大學西北分校</t>
+    <t>印第安纳大学西北分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%BE%B7%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賈德森大學</t>
+    <t>贾德森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯大學</t>
+    <t>路易斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%B7%AF%E6%98%93%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國家路易斯大學</t>
+    <t>国家路易斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國家健康科學大學</t>
+    <t>国家健康科学大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B8%95%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北帕克大學</t>
+    <t>北帕克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東北伊利諾伊大學</t>
+    <t>东北伊利诺伊大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%A4%A7%E5%AD%A6</t>
@@ -1145,31 +1136,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅斯福大學</t>
+    <t>罗斯福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%B9%E6%BF%9F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖方濟大學</t>
+    <t>圣方济大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E6%B9%96%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖瑪麗湖大學</t>
+    <t>圣玛丽湖大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%BE%A4%E7%B6%AD%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖澤維爾大學</t>
+    <t>圣泽维尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>三一國際大學</t>
+    <t>三一国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E5%B8%95%E8%8E%B1%E7%B4%A2%E5%A4%A7%E5%AD%A6</t>
@@ -1181,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E5%B8%95%E5%85%8B%E5%A1%9E%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學帕克塞德分校</t>
+    <t>威斯康星大学帕克塞德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中西大學</t>
+    <t>中西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E6%A0%BC%E8%8E%B1%E5%BE%B7</t>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E9%9F%A6</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A0%A1</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -1403,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA</t>
   </si>
   <si>
-    <t>大阪</t>
+    <t>大坂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1493,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
@@ -1505,19 +1496,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%99%AE%E5%8D%80</t>
   </si>
   <si>
-    <t>洛普區</t>
+    <t>洛普区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>芝加哥捷運</t>
+    <t>芝加哥捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>芝加哥摩天大樓列表</t>
+    <t>芝加哥摩天大楼列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -1553,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>泛美運動會</t>
+    <t>泛美运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AF%BA%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
@@ -1571,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF</t>
   </si>
   <si>
-    <t>溫尼伯</t>
+    <t>温尼伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9</t>
@@ -1595,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%93%A6%E9%82%A3</t>
@@ -1607,13 +1598,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%99%AE%E6%8B%89%E5%A1%94</t>
   </si>
   <si>
-    <t>馬德普拉塔</t>
+    <t>马德普拉塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E6%98%8E%E5%93%A5</t>
   </si>
   <si>
-    <t>聖多明哥</t>
+    <t>圣多明哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E6%8B%89%E5%93%88%E6%8B%89_(%E5%A2%A8%E8%A5%BF%E5%93%A5)</t>
@@ -1637,9 +1628,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Bottom</t>
@@ -1709,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E9%83%BD%E5%B8%82%E5%8D%80</t>
   </si>
   <si>
-    <t>芝加哥大都市區</t>
+    <t>芝加哥大都市区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Driftless_Area</t>
@@ -1763,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%8A%E5%BE%B7%E5%9F%8E</t>
   </si>
   <si>
-    <t>闊德城</t>
+    <t>阔德城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/River_Bend_(Illinois)</t>
@@ -1775,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E6%9D%B1%E5%8D%80</t>
   </si>
   <si>
-    <t>都會東區</t>
+    <t>都会东区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wabash_Valley</t>
@@ -1859,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E9%87%91_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃爾金 (伊利諾州)</t>
+    <t>埃尔金 (伊利诺州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Freeport,_Illinois</t>
@@ -1877,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%88%A9%E5%9F%83%E7%89%B9_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>喬利埃特 (伊利諾州)</t>
+    <t>乔利埃特 (伊利诺州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kankakee,_Illinois</t>
@@ -1901,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%8F%80%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>內珀維爾</t>
+    <t>内珀维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%A5%A5%E9%87%8C%E4%BA%9A_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1931,13 +1919,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞當斯縣 (伊利諾伊州)</t>
+    <t>亚当斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞歷山大縣 (伊利諾伊州)</t>
+    <t>亚历山大县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%BE%B7%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1949,49 +1937,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布恩縣 (伊利諾伊州)</t>
+    <t>布恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布朗縣 (伊利諾伊州)</t>
+    <t>布朗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%BE%85%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>比羅縣 (伊利諾伊州)</t>
+    <t>比罗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%9C%8D%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡爾霍恩縣 (伊利諾伊州)</t>
+    <t>卡尔霍恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡洛爾縣 (伊利諾伊州)</t>
+    <t>卡洛尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡斯縣 (伊利諾伊州)</t>
+    <t>卡斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里斯蒂安縣 (伊利諾伊州)</t>
+    <t>克里斯蒂安县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克拉克縣 (伊利諾伊州)</t>
+    <t>克拉克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2003,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克林頓縣 (伊利諾伊州)</t>
+    <t>克林顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E6%96%AF%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2015,55 +2003,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫克縣 (伊利諾伊州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞福德縣 (伊利諾伊州)</t>
+    <t>克劳福德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎伯蘭縣 (伊利諾伊州)</t>
+    <t>坎伯兰县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A8%81%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德威特縣 (伊利諾伊州)</t>
+    <t>德威特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>道格拉斯縣 (伊利諾伊州)</t>
+    <t>道格拉斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E5%8A%A0%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃德加縣 (伊利諾伊州)</t>
+    <t>埃德加县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E8%8C%B2%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>愛德華茲縣 (伊利諾伊州)</t>
+    <t>爱德华兹县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8A%AC%E6%BC%A2%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃芬漢縣 (伊利諾伊州)</t>
+    <t>埃芬汉县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%80%B6%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費耶特縣 (伊利諾伊州)</t>
+    <t>费耶特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2075,55 +2060,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (伊利諾伊州)</t>
+    <t>富兰克林县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E7%88%BE%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富爾頓縣 (伊利諾伊州)</t>
+    <t>富尔顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%BB%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加拉廷縣 (伊利諾伊州)</t>
+    <t>加拉廷县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格林縣 (伊利諾伊州)</t>
+    <t>格林县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E8%BF%AA%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭迪縣 (伊利諾伊州)</t>
+    <t>格兰迪县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (伊利諾伊州)</t>
+    <t>汉密尔顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%80%83%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢考克縣 (伊利諾伊州)</t>
+    <t>汉考克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%B8%81%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈丁縣 (伊利諾伊州)</t>
+    <t>哈丁县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亨德森縣 (伊利諾伊州)</t>
+    <t>亨德森县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2135,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>易洛魁縣 (伊利諾伊州)</t>
+    <t>易洛魁县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2147,31 +2132,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%96%AF%E5%B8%95%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑斯帕縣 (伊利諾伊州)</t>
+    <t>杰斯帕县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (伊利諾伊州)</t>
+    <t>杰佛逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>澤西縣 (伊利諾伊州)</t>
+    <t>泽西县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%88%B4%E7%B6%AD%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>喬戴維斯縣 (伊利諾伊州)</t>
+    <t>乔戴维斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰遜縣 (伊利諾伊州)</t>
+    <t>约翰逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2195,43 +2180,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%96%A9%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉薩爾縣 (伊利諾伊州)</t>
+    <t>拉萨尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (伊利諾伊州)</t>
+    <t>莱克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞倫斯縣 (伊利諾伊州)</t>
+    <t>劳伦斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>李縣 (伊利諾伊州)</t>
+    <t>李县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%96%87%E6%96%AF%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利文斯頓縣 (伊利諾伊州)</t>
+    <t>利文斯顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A0%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛根縣 (伊利諾伊州)</t>
+    <t>洛根县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%82%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅肯縣 (伊利諾伊州)</t>
+    <t>梅肯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BA%93%E5%B9%B3%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2243,13 +2228,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥迪遜縣 (伊利諾伊州)</t>
+    <t>麦迪逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%98%82%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬里昂縣 (伊利諾伊州)</t>
+    <t>马里昂县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2261,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A3%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅森縣 (伊利諾伊州)</t>
+    <t>梅森县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E5%85%8B%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2303,19 +2288,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門羅縣 (伊利諾伊州)</t>
+    <t>门罗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利縣 (伊利諾伊州)</t>
+    <t>蒙哥马利县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根縣 (伊利諾伊州)</t>
+    <t>摩根县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E7%89%B9%E9%87%8C%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2327,13 +2312,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧格爾縣 (伊利諾伊州)</t>
+    <t>奥格尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%87%8C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佩里縣 (伊利諾伊州)</t>
+    <t>佩里县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E4%BA%9A%E7%89%B9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2345,25 +2330,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>派克縣 (伊利諾伊州)</t>
+    <t>派克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%99%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波普縣 (伊利諾伊州)</t>
+    <t>波普县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%93%A6%E6%96%AF%E5%9F%BA%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普瓦斯基縣 (伊利諾伊州)</t>
+    <t>普瓦斯基县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%89%B9%E5%8D%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普特南縣 (伊利諾伊州)</t>
+    <t>普特南县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%81%93%E5%A4%AB%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2393,19 +2378,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%8A%A0%E8%92%99%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>桑加蒙縣 (伊利諾伊州)</t>
+    <t>桑加蒙县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%87%B1%E5%8B%92%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯凱勒縣 (伊利諾伊州)</t>
+    <t>斯凯勒县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科特縣 (伊利諾伊州)</t>
+    <t>斯科特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%B0%94%E6%AF%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2423,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯塔克縣 (伊利諾伊州)</t>
+    <t>斯塔克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%E6%96%AF%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2447,43 +2432,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%B1%B3%E5%88%A9%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗米利恩縣 (伊利諾伊州)</t>
+    <t>弗米利恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B7%B4%E4%BB%80%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃巴什縣 (伊利諾伊州)</t>
+    <t>沃巴什县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃倫縣 (伊利諾伊州)</t>
+    <t>沃伦县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華盛頓縣 (伊利諾伊州)</t>
+    <t>华盛顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋恩縣 (伊利諾伊州)</t>
+    <t>韦恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷特縣 (伊利諾伊州)</t>
+    <t>怀特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%89%B9%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷特塞德縣 (伊利諾伊州)</t>
+    <t>怀特塞德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2495,7 +2480,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%A3%AE%E7%B8%A3_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威廉森縣 (田納西州)</t>
+    <t>威廉森县 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E7%BA%B3%E8%B4%9D%E6%88%88%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2507,31 +2492,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍德福德縣 (伊利諾伊州)</t>
+    <t>伍德福德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -2543,19 +2525,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -2567,13 +2549,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -2585,37 +2567,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
@@ -2633,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -2645,19 +2627,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -2669,55 +2648,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -2735,19 +2714,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2777,7 +2756,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2801,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4253,7 @@
         <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
         <v>30</v>
@@ -4300,10 +4279,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
         <v>69</v>
-      </c>
-      <c r="F40" t="s">
-        <v>70</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4329,10 +4308,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
         <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -4358,10 +4337,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
         <v>73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -4387,10 +4366,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
         <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -4416,10 +4395,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -4445,10 +4424,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -4474,10 +4453,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4503,10 +4482,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -4532,10 +4511,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4561,10 +4540,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4590,10 +4569,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>9</v>
@@ -4619,10 +4598,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -4648,10 +4627,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4677,10 +4656,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4706,10 +4685,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4735,10 +4714,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4764,10 +4743,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4793,10 +4772,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4822,10 +4801,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -4851,10 +4830,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4880,10 +4859,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4909,10 +4888,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4938,10 +4917,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4967,10 +4946,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4996,10 +4975,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5025,10 +5004,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5054,10 +5033,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5083,10 +5062,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5112,10 +5091,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5141,10 +5120,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5199,10 +5178,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5228,10 +5207,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5257,10 +5236,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -5286,10 +5265,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5315,10 +5294,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -5344,10 +5323,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -5373,10 +5352,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5402,10 +5381,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5431,10 +5410,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5460,10 +5439,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5489,10 +5468,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -5518,10 +5497,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5547,10 +5526,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5576,10 +5555,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5605,10 +5584,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5634,10 +5613,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5663,10 +5642,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5692,10 +5671,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5721,10 +5700,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5750,10 +5729,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5779,10 +5758,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5808,10 +5787,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5837,10 +5816,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5866,10 +5845,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5895,10 +5874,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5924,10 +5903,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5953,10 +5932,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5982,10 +5961,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6011,10 +5990,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6040,10 +6019,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6069,10 +6048,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -6098,10 +6077,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6127,10 +6106,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6156,10 +6135,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6185,10 +6164,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6214,10 +6193,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6243,10 +6222,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6272,10 +6251,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6301,10 +6280,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6330,10 +6309,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6359,10 +6338,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6388,10 +6367,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6417,10 +6396,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6446,10 +6425,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6475,10 +6454,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6504,10 +6483,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6533,10 +6512,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6562,10 +6541,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6591,10 +6570,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6620,10 +6599,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6649,10 +6628,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6678,10 +6657,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6707,10 +6686,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6736,10 +6715,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6765,10 +6744,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6794,10 +6773,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6823,10 +6802,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6852,10 +6831,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6881,10 +6860,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6910,10 +6889,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6939,10 +6918,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6968,10 +6947,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6997,10 +6976,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -7026,10 +7005,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7055,10 +7034,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7084,10 +7063,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7113,10 +7092,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7142,10 +7121,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7171,10 +7150,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7200,10 +7179,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7229,10 +7208,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7258,10 +7237,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7287,10 +7266,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7316,10 +7295,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7345,10 +7324,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -7374,10 +7353,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7403,10 +7382,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7432,10 +7411,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7461,10 +7440,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7490,10 +7469,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7519,10 +7498,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7548,10 +7527,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7577,10 +7556,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7606,10 +7585,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7635,10 +7614,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7664,10 +7643,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7693,10 +7672,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7722,10 +7701,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7751,10 +7730,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7780,10 +7759,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -7809,10 +7788,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F161" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7838,10 +7817,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7867,10 +7846,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7896,10 +7875,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7925,10 +7904,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7954,10 +7933,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7983,10 +7962,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F167" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8012,10 +7991,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8041,10 +8020,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8070,10 +8049,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8099,10 +8078,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8128,10 +8107,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -8157,10 +8136,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8186,10 +8165,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8215,10 +8194,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8244,10 +8223,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8273,10 +8252,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -8302,10 +8281,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8331,10 +8310,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8360,10 +8339,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8389,10 +8368,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8418,10 +8397,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8447,10 +8426,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8476,10 +8455,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8505,10 +8484,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8534,10 +8513,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8563,10 +8542,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8592,10 +8571,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8621,10 +8600,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8650,10 +8629,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F190" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8679,10 +8658,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8708,10 +8687,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8737,10 +8716,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8766,10 +8745,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F194" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8795,10 +8774,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8824,10 +8803,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8853,10 +8832,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8882,10 +8861,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8911,10 +8890,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8940,10 +8919,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8969,10 +8948,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8998,10 +8977,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9027,10 +9006,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9056,10 +9035,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9085,10 +9064,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9114,10 +9093,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9143,10 +9122,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9172,10 +9151,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9201,10 +9180,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9230,10 +9209,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9259,10 +9238,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9288,10 +9267,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9317,10 +9296,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9346,10 +9325,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9375,10 +9354,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9404,10 +9383,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9433,10 +9412,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9462,10 +9441,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9491,10 +9470,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9520,10 +9499,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9549,10 +9528,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9578,10 +9557,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9607,10 +9586,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9636,10 +9615,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9665,10 +9644,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9694,10 +9673,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9723,10 +9702,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9752,10 +9731,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9781,10 +9760,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9810,10 +9789,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9839,10 +9818,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9868,10 +9847,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9897,10 +9876,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9926,10 +9905,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G234" t="n">
         <v>5</v>
@@ -9955,10 +9934,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9984,10 +9963,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10013,10 +9992,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10042,10 +10021,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10071,10 +10050,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10100,10 +10079,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10129,10 +10108,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10158,10 +10137,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10187,10 +10166,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10216,10 +10195,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10245,10 +10224,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10274,10 +10253,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10303,10 +10282,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10332,10 +10311,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10361,10 +10340,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10390,10 +10369,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10419,10 +10398,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10448,10 +10427,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10477,10 +10456,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10506,10 +10485,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10535,10 +10514,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10564,10 +10543,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10593,10 +10572,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10622,10 +10601,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10651,10 +10630,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10680,10 +10659,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10709,10 +10688,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10738,10 +10717,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10767,10 +10746,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10796,10 +10775,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10825,10 +10804,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10854,10 +10833,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10883,10 +10862,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10912,10 +10891,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10941,10 +10920,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10970,10 +10949,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10999,10 +10978,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11028,10 +11007,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11057,10 +11036,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11086,10 +11065,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11115,10 +11094,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11144,10 +11123,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11173,10 +11152,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11202,10 +11181,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11231,10 +11210,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11260,10 +11239,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11289,10 +11268,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11318,10 +11297,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>28</v>
       </c>
       <c r="G282" t="n">
         <v>9</v>
@@ -11347,10 +11326,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>9</v>
@@ -11376,10 +11355,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F284" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11434,10 +11413,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G286" t="n">
         <v>10</v>
@@ -11463,10 +11442,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G287" t="n">
         <v>6</v>
@@ -11492,10 +11471,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11521,10 +11500,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G289" t="n">
         <v>6</v>
@@ -11550,10 +11529,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>8</v>
@@ -11579,10 +11558,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -11608,10 +11587,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>10</v>
@@ -11637,10 +11616,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11666,10 +11645,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11695,10 +11674,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11724,10 +11703,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11753,10 +11732,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11782,10 +11761,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11811,10 +11790,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11840,10 +11819,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11869,10 +11848,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11898,10 +11877,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11927,10 +11906,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11956,10 +11935,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11985,10 +11964,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12014,10 +11993,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12043,10 +12022,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12072,10 +12051,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12101,10 +12080,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12130,10 +12109,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12159,10 +12138,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12188,10 +12167,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12217,10 +12196,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12246,10 +12225,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12275,10 +12254,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12304,10 +12283,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12333,10 +12312,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12362,10 +12341,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12391,10 +12370,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12420,10 +12399,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12449,10 +12428,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12478,10 +12457,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12507,10 +12486,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12536,10 +12515,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12565,10 +12544,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12594,10 +12573,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12623,10 +12602,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12652,10 +12631,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12681,10 +12660,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12710,10 +12689,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12739,10 +12718,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12768,10 +12747,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12797,10 +12776,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12826,10 +12805,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12855,10 +12834,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12884,10 +12863,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12913,10 +12892,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12942,10 +12921,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12971,10 +12950,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13000,10 +12979,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13029,10 +13008,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13058,10 +13037,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13087,10 +13066,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13116,10 +13095,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -13145,10 +13124,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13174,10 +13153,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13203,10 +13182,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>32</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13232,10 +13211,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13261,10 +13240,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13290,10 +13269,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13319,10 +13298,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13377,10 +13356,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13406,10 +13385,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13435,10 +13414,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13464,10 +13443,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13493,10 +13472,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13522,10 +13501,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13551,10 +13530,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F359" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13580,10 +13559,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F360" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13609,10 +13588,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F361" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13638,10 +13617,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F362" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13667,10 +13646,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F363" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13696,10 +13675,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F364" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13725,10 +13704,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F365" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13754,10 +13733,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F366" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13783,10 +13762,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F367" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G367" t="n">
         <v>3</v>
@@ -13812,10 +13791,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F368" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13841,10 +13820,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F369" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13870,10 +13849,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F370" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13899,10 +13878,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F371" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13928,10 +13907,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F372" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13957,10 +13936,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F373" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13986,10 +13965,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F374" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14015,10 +13994,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F375" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14044,10 +14023,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F376" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14073,10 +14052,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F377" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14102,10 +14081,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F378" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14131,10 +14110,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F379" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14160,10 +14139,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F380" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14189,10 +14168,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F381" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14218,10 +14197,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F382" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14247,10 +14226,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F383" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14276,10 +14255,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F384" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14305,10 +14284,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F385" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14334,10 +14313,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F386" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14363,10 +14342,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F387" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14392,10 +14371,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F388" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14421,10 +14400,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F389" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14450,10 +14429,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F390" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14479,10 +14458,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F391" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14508,10 +14487,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F392" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14537,10 +14516,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F393" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14566,10 +14545,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F394" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14595,10 +14574,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F395" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14624,10 +14603,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F396" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14653,10 +14632,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F397" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14682,10 +14661,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F398" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14711,10 +14690,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14740,10 +14719,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14769,10 +14748,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F401" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14798,10 +14777,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14827,10 +14806,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14856,10 +14835,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F404" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14885,10 +14864,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F405" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14914,10 +14893,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F406" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14943,10 +14922,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F407" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14972,10 +14951,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F408" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15001,10 +14980,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F409" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15030,10 +15009,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F410" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15059,10 +15038,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F411" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15088,10 +15067,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F412" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15117,10 +15096,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F413" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15146,10 +15125,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F414" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15175,10 +15154,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F415" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15204,10 +15183,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F416" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15233,10 +15212,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F417" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15262,10 +15241,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F418" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15291,10 +15270,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F419" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15320,10 +15299,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15349,10 +15328,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15378,10 +15357,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15407,10 +15386,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G423" t="n">
         <v>3</v>
@@ -15436,10 +15415,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F424" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15465,10 +15444,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F425" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15494,10 +15473,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F426" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15523,10 +15502,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F427" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15552,10 +15531,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F428" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15581,10 +15560,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F429" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15610,10 +15589,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F430" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15639,10 +15618,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F431" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15668,10 +15647,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F432" t="s">
-        <v>834</v>
+        <v>75</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15697,10 +15676,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F433" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15726,10 +15705,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F434" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15755,10 +15734,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F435" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15784,10 +15763,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F436" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15813,10 +15792,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F437" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15842,10 +15821,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F438" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15871,10 +15850,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F439" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15900,10 +15879,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F440" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15929,10 +15908,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F441" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15958,10 +15937,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F442" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -15987,10 +15966,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F443" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16016,10 +15995,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F444" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16045,10 +16024,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F445" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16074,10 +16053,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F446" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16103,10 +16082,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F447" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16132,10 +16111,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F448" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16161,10 +16140,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F449" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16190,10 +16169,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F450" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16219,10 +16198,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F451" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16248,10 +16227,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F452" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16277,10 +16256,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F453" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16306,10 +16285,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F454" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16335,10 +16314,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F455" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16364,10 +16343,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F456" t="s">
-        <v>878</v>
+        <v>188</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16393,10 +16372,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F457" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16422,10 +16401,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F458" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16451,10 +16430,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F459" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16480,10 +16459,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F460" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16509,10 +16488,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F461" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16538,10 +16517,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F462" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16567,10 +16546,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F463" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16596,10 +16575,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F464" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16625,10 +16604,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F465" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16654,10 +16633,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F466" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16683,10 +16662,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F467" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16712,10 +16691,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F468" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16741,10 +16720,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F469" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16770,10 +16749,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F470" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16799,10 +16778,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="F471" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16828,10 +16807,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F472" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16857,10 +16836,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F473" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16886,10 +16865,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F474" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16915,10 +16894,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F475" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16944,10 +16923,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F476" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16973,10 +16952,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="F477" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -17002,10 +16981,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F478" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17031,10 +17010,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F479" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17060,10 +17039,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F480" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17089,10 +17068,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="F481" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
